--- a/Fullstack Java Syallabus.xlsx
+++ b/Fullstack Java Syallabus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aashiq\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aashiq\Documents\FSJ-40Days\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC6616A-6411-4410-8089-5C2871A6AA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304563F9-CD6B-4180-8BA3-9B65AAFD3B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{79F39260-DDB3-42E4-A16F-DAE752734B8C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
   <si>
     <t>DAY</t>
   </si>
@@ -54,89 +54,182 @@
     <t>https://github.com/aashiqui2/Java-Basics</t>
   </si>
   <si>
-    <t xml:space="preserve">Introduction to Java, JVM, JRE, JDK &amp; Setup,Data Types, Variables, Operators &amp; I/O
+    <t>Array Program Practice</t>
+  </si>
+  <si>
+    <t>Strings and String method</t>
+  </si>
+  <si>
+    <t>String Program Practice</t>
+  </si>
+  <si>
+    <t>OOPS Concepts</t>
+  </si>
+  <si>
+    <t>Exception Handling</t>
+  </si>
+  <si>
+    <t>Control Statements – If/Else, Switch, Looping</t>
+  </si>
+  <si>
+    <t>https://github.com/aashiqui2/Exception-Handling</t>
+  </si>
+  <si>
+    <t>Collections Framework &amp; Generics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JDBC Connectivity </t>
+  </si>
+  <si>
+    <t>https://github.com/aashiqui2/JDBC</t>
+  </si>
+  <si>
+    <t>https://github.com/aashiqui2/Collection-Framework</t>
+  </si>
+  <si>
+    <t>https://github.com/aashiqui2/Stream-API</t>
+  </si>
+  <si>
+    <t>CC Portal</t>
+  </si>
+  <si>
+    <t>PRACTICE QUESTION LEETCODE PROBLEM NUMBER</t>
+  </si>
+  <si>
+    <t>LC1021, LC151, LC205, LC796, LC242, LC451</t>
+  </si>
+  <si>
+    <t>Pattern Problem Inhacker Rank</t>
+  </si>
+  <si>
+    <t>LC283, LC189, LC268, LC1 ,LC75, LC121, LC48, LC238</t>
+  </si>
+  <si>
+    <t>CRUD Application using Java + MYSQL</t>
+  </si>
+  <si>
+    <t>Number Crunching Program</t>
+  </si>
+  <si>
+    <t>Array Basic Program</t>
+  </si>
+  <si>
+    <t>Arrays &amp;Arrays MultiDimentional Concept</t>
+  </si>
+  <si>
+    <t>Functional Interface &amp;Lamda Expression</t>
+  </si>
+  <si>
+    <t>https://github.com/aashiqui2/Lambda-Expressions</t>
+  </si>
+  <si>
+    <t>Multithreading</t>
+  </si>
+  <si>
+    <t>https://github.com/aashiqui2/Multithreading</t>
+  </si>
+  <si>
+    <t>StreamAPI &amp; Optional Class</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>Servlet &amp; JSP Intro</t>
+  </si>
+  <si>
+    <t>Spring Framework &amp; Spring Boot</t>
+  </si>
+  <si>
+    <t>Spring Data JPA</t>
+  </si>
+  <si>
+    <t>CRUD Application using Spring Data JPA</t>
+  </si>
+  <si>
+    <t>Hibernate and Entity Mapping</t>
+  </si>
+  <si>
+    <t>https://github.com/aashiqui2/SpringBoot</t>
+  </si>
+  <si>
+    <t>https://github.com/aashiqui2/Hibernate</t>
+  </si>
+  <si>
+    <t>https://github.com/aashiqui2/Spring-Data-JPA</t>
+  </si>
+  <si>
+    <t>SUB TOPICS</t>
+  </si>
+  <si>
+    <t>JVM, JDK, JRE, Variables, Data Types, Operators, Input/Output</t>
+  </si>
+  <si>
+    <t>Class, Object, Inheritance, Polymorphism, Abstraction, Encapsulation</t>
+  </si>
+  <si>
+    <t>List, Set, Map, ArrayList, HashMap, Iterator</t>
+  </si>
+  <si>
+    <t>Driver, Connection, Statement, PreparedStatement, ResultSet</t>
+  </si>
+  <si>
+    <t>Servlet lifecycle, doGet/doPost, Request/Response, Sessions</t>
+  </si>
+  <si>
+    <t>IOC, DI, Beans, Annotations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to Java &amp; Setup
 </t>
   </si>
   <si>
-    <t>Array Program Practice</t>
-  </si>
-  <si>
-    <t>Strings and String method</t>
-  </si>
-  <si>
-    <t>String Program Practice</t>
-  </si>
-  <si>
-    <t>OOPS Concepts</t>
-  </si>
-  <si>
-    <t>Exception Handling</t>
-  </si>
-  <si>
-    <t>Control Statements – If/Else, Switch, Looping</t>
-  </si>
-  <si>
-    <t>https://github.com/aashiqui2/Exception-Handling</t>
-  </si>
-  <si>
-    <t>Collections Framework &amp; Generics</t>
-  </si>
-  <si>
-    <t>Optional Classes</t>
-  </si>
-  <si>
-    <t>StreamAPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JDBC Connectivity </t>
-  </si>
-  <si>
-    <t>https://github.com/aashiqui2/JDBC</t>
-  </si>
-  <si>
-    <t>https://github.com/aashiqui2/Collection-Framework</t>
-  </si>
-  <si>
-    <t>https://github.com/aashiqui2/Optional-Class</t>
-  </si>
-  <si>
-    <t>https://github.com/aashiqui2/Stream-API</t>
-  </si>
-  <si>
-    <t>CC Portal</t>
-  </si>
-  <si>
-    <t>PRACTICE QUESTION LEETCODE PROBLEM NUMBER</t>
-  </si>
-  <si>
-    <t>LC1021, LC151, LC205, LC796, LC242, LC451</t>
-  </si>
-  <si>
-    <t>Pattern Problem Inhacker Rank</t>
-  </si>
-  <si>
-    <t>LC283, LC189, LC268, LC1 ,LC75, LC121, LC48, LC238</t>
-  </si>
-  <si>
-    <t>CRUD Application using Java + MYSQL</t>
-  </si>
-  <si>
-    <t>Number Crunching Program</t>
-  </si>
-  <si>
-    <t>Array Basic Program</t>
-  </si>
-  <si>
-    <t>Arrays &amp;Arrays MultiDimentional Concept</t>
-  </si>
-  <si>
-    <t>Spring tools suite IDE Installation &amp; Usage</t>
+    <t>For,While,Do-while,ForEach,Pattern Problems</t>
+  </si>
+  <si>
+    <t>Array creation, finding length, printing array using loop and array in-methods</t>
+  </si>
+  <si>
+    <t>Spring tools suite IDE Installation</t>
+  </si>
+  <si>
+    <t>Usage,Shortcut keys,Run configuration</t>
+  </si>
+  <si>
+    <t>Leetcode Problems</t>
+  </si>
+  <si>
+    <t>Creation, Accessing, Modifying, mutable vs immutable, Practiced String Problems</t>
+  </si>
+  <si>
+    <t>Try, Catch, Finally, try -with resources, Custom exception classes</t>
+  </si>
+  <si>
+    <t>Creation ,Thread lifecycle,Thread Methods</t>
+  </si>
+  <si>
+    <t>Usage ,ways to functional interface, method reference, and other functional interface like predicate,consumer,supplier etc.</t>
+  </si>
+  <si>
+    <t>Stream creation, intermediate operation, terminal operation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CRUD PROJECT</t>
+  </si>
+  <si>
+    <t>Configuration, types of strategy like AUTO,IDENTITY,UUID etc.,one-to-one, one-to-many, many-to-many, achieving Inheritance.</t>
+  </si>
+  <si>
+    <t>Pagination, sorting, queryby method,queryby annotation,Propagation theory</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -144,17 +237,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
     </font>
     <font>
       <u/>
@@ -182,9 +264,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -202,12 +297,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -217,79 +312,392 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="10"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -300,6 +708,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{85E17F45-1EEA-4B97-AC02-B3D08EB65F51}" name="Table1" displayName="Table1" ref="A1:H21" totalsRowShown="0" headerRowDxfId="11" dataDxfId="0" headerRowBorderDxfId="10" tableBorderDxfId="9">
+  <autoFilter ref="A1:H21" xr:uid="{85E17F45-1EEA-4B97-AC02-B3D08EB65F51}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{AD303E0C-AD5E-40F7-8DA8-AD3EE6DF7A81}" name="DATE" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{90038021-B772-4022-BCB6-731CDE51C8A3}" name="DAY" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{10690F87-2781-43C6-BFDD-34AF93E047E8}" name="TOPIC" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{F2CB9A50-4851-4A27-B2ED-493FCB4A71DB}" name="SUB TOPICS" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{1C98267A-AE42-4A45-849B-D22154042803}" name="TAKING HOURS" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{82A849F1-BB56-4D04-8DD9-AB4DCE1141C9}" name="REFERENCE LINK FOR TRAINER" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{25ACE5D2-5EF0-4A3A-8BE4-6B59DCEA9626}" name="REFERENCE LINK FOR STUDENT" dataDxfId="2" dataCellStyle="Hyperlink"/>
+    <tableColumn id="8" xr3:uid="{2E00CA47-5A64-4CCC-93A9-DD19CD6D71B8}" name="PRACTICE QUESTION LEETCODE PROBLEM NUMBER" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -599,288 +1024,517 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5137F1-44AF-482B-8E62-D560D519FCCF}">
-  <dimension ref="A1:AA15"/>
+  <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.44140625" defaultRowHeight="35.4" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" style="4"/>
-    <col min="2" max="2" width="87.21875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="27.44140625" customWidth="1"/>
-    <col min="5" max="5" width="55.5546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="58.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="2"/>
+    <col min="3" max="3" width="87.21875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="65.77734375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="6" max="6" width="34.5546875" customWidth="1"/>
+    <col min="7" max="7" width="55.5546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="58.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="10" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+    </row>
+    <row r="2" spans="1:29" s="4" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <v>46001</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" s="5" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>46002</v>
+      </c>
+      <c r="B3" s="12">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" s="5" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>46003</v>
+      </c>
+      <c r="B4" s="12">
+        <v>3</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" s="5" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>46006</v>
+      </c>
+      <c r="B5" s="12">
+        <v>4</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="20"/>
+    </row>
+    <row r="6" spans="1:29" s="5" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>46007</v>
+      </c>
+      <c r="B6" s="12">
+        <v>5</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" s="5" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>46008</v>
+      </c>
+      <c r="B7" s="12">
+        <v>6</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:29" s="5" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>46009</v>
+      </c>
+      <c r="B8" s="12">
+        <v>7</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" s="5" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>46010</v>
+      </c>
+      <c r="B9" s="12">
+        <v>8</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:29" s="5" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>46011</v>
+      </c>
+      <c r="B10" s="12">
+        <v>9</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:29" s="5" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>46027</v>
+      </c>
+      <c r="B11" s="12">
+        <v>10</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" spans="1:29" s="5" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>46028</v>
+      </c>
+      <c r="B12" s="12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="1:29" s="5" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
+        <v>46029</v>
+      </c>
+      <c r="B13" s="12">
+        <v>11</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:29" s="5" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
+        <v>46030</v>
+      </c>
+      <c r="B14" s="12">
+        <v>12</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" spans="1:29" s="5" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
+        <v>46031</v>
+      </c>
+      <c r="B15" s="12">
+        <v>13</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="1:29" s="5" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
+        <v>46041</v>
+      </c>
+      <c r="B16" s="12">
+        <v>14</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-    </row>
-    <row r="2" spans="1:27" s="13" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" s="16" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11">
-        <v>2</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" s="16" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="11">
-        <v>3</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" s="16" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="19"/>
-    </row>
-    <row r="6" spans="1:27" s="16" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11">
-        <v>5</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" s="16" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11">
-        <v>6</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:27" s="16" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="11">
-        <v>7</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" s="16" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11">
-        <v>8</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" spans="1:27" s="16" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="11">
-        <v>9</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" spans="1:27" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D16" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="1:8" s="5" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
+        <v>46042</v>
+      </c>
+      <c r="B17" s="12">
+        <v>15</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
+    </row>
+    <row r="18" spans="1:8" s="5" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
+        <v>46043</v>
+      </c>
+      <c r="B18" s="12">
+        <v>16</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:8" s="5" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
+        <v>46044</v>
+      </c>
+      <c r="B19" s="12">
+        <v>17</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="1:8" s="5" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
+        <v>46045</v>
+      </c>
+      <c r="B20" s="12">
+        <v>18</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="1:8" s="5" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
+        <v>46046</v>
+      </c>
+      <c r="B21" s="12">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="C21" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{2B2DDD7E-2A8A-43B3-B534-CB2F9F28C14F}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{0D82F987-E436-46A3-9D6E-FAEEC35338FD}"/>
-    <hyperlink ref="E10" r:id="rId3" xr:uid="{006506DC-B841-4AD7-93DD-3C812235BFC8}"/>
-    <hyperlink ref="E9" r:id="rId4" xr:uid="{8A007703-619C-4826-8027-C1790342B185}"/>
-    <hyperlink ref="E5" r:id="rId5" xr:uid="{59F41AD1-FA3C-420F-BB74-4A9A9CBB6B09}"/>
-    <hyperlink ref="E6" r:id="rId6" xr:uid="{3BD6A3F3-92F5-42B6-B10E-13CEEF44F9E9}"/>
-    <hyperlink ref="E7" r:id="rId7" xr:uid="{DF699868-B0CE-45D1-9013-FE9077D54A6F}"/>
-    <hyperlink ref="E8" r:id="rId8" xr:uid="{4303E024-7E4B-4E1C-B79C-8E3E34FCB4CD}"/>
-    <hyperlink ref="E3" r:id="rId9" xr:uid="{E67E25C5-8CF1-4AC0-A3BA-7AC010267B3C}"/>
-    <hyperlink ref="E11" r:id="rId10" xr:uid="{69CD14F5-9548-4533-9259-04DD532251AE}"/>
-    <hyperlink ref="E13" r:id="rId11" xr:uid="{9AA6E45D-8D6B-4B10-8B58-0D3A07305840}"/>
-    <hyperlink ref="E12" r:id="rId12" xr:uid="{9FF37EA9-AFC5-41FB-956D-8857606814AE}"/>
-    <hyperlink ref="E14" r:id="rId13" xr:uid="{1E109810-1C44-4FCF-A3C8-2FA57EE5A48F}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{2B2DDD7E-2A8A-43B3-B534-CB2F9F28C14F}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{0D82F987-E436-46A3-9D6E-FAEEC35338FD}"/>
+    <hyperlink ref="G10" r:id="rId3" xr:uid="{006506DC-B841-4AD7-93DD-3C812235BFC8}"/>
+    <hyperlink ref="G9" r:id="rId4" xr:uid="{8A007703-619C-4826-8027-C1790342B185}"/>
+    <hyperlink ref="G5" r:id="rId5" xr:uid="{59F41AD1-FA3C-420F-BB74-4A9A9CBB6B09}"/>
+    <hyperlink ref="G6" r:id="rId6" xr:uid="{3BD6A3F3-92F5-42B6-B10E-13CEEF44F9E9}"/>
+    <hyperlink ref="G7" r:id="rId7" xr:uid="{DF699868-B0CE-45D1-9013-FE9077D54A6F}"/>
+    <hyperlink ref="G8" r:id="rId8" xr:uid="{4303E024-7E4B-4E1C-B79C-8E3E34FCB4CD}"/>
+    <hyperlink ref="G3" r:id="rId9" xr:uid="{E67E25C5-8CF1-4AC0-A3BA-7AC010267B3C}"/>
+    <hyperlink ref="G11" r:id="rId10" xr:uid="{69CD14F5-9548-4533-9259-04DD532251AE}"/>
+    <hyperlink ref="G14" r:id="rId11" xr:uid="{9AA6E45D-8D6B-4B10-8B58-0D3A07305840}"/>
+    <hyperlink ref="G13" r:id="rId12" xr:uid="{9FF37EA9-AFC5-41FB-956D-8857606814AE}"/>
+    <hyperlink ref="G15" r:id="rId13" xr:uid="{1E109810-1C44-4FCF-A3C8-2FA57EE5A48F}"/>
+    <hyperlink ref="G12" r:id="rId14" xr:uid="{FA725846-C533-4F4D-A254-FDD144F697A1}"/>
+    <hyperlink ref="G18" r:id="rId15" xr:uid="{43D417FA-19BD-4E77-8423-CFA2B97BBBA4}"/>
+    <hyperlink ref="G19" r:id="rId16" xr:uid="{70BC17CF-1FDC-4289-9AD1-18A5AB067260}"/>
+    <hyperlink ref="G20" r:id="rId17" xr:uid="{2E392BBF-3689-4D90-904E-02060F8EDA4D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId18"/>
+  </tableParts>
 </worksheet>
 </file>